--- a/測量結果/各點準確率.xlsx
+++ b/測量結果/各點準確率.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiwe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20171226\Desktop\UWB\測量結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB7FF7-5EE9-4D4A-931F-B7DDFC42FF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993442C-C7B5-4497-B769-11B8C84A4F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>無遮擋</t>
   </si>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>範圍測量±30，500次測量準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範圍測量±35，500次測量準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範圍測量±40，500次測量準確率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,12 +65,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,11 +103,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -362,70 +397,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
         <v>0.996</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="5">
         <v>0.88600000000000001</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="4">
         <v>0.72</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="5">
         <v>0.96399999999999997</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="5">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="5">
         <v>0.74399999999999999</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>0.28399999999999997</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>0.50600000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0.03</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
